--- a/Resultados/df_resultados_finales.xlsx
+++ b/Resultados/df_resultados_finales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\Resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8AD52F-1908-451E-8B57-BABC9380A162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47B3CBB-9B9C-43F8-8891-34787BBD0B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>RC daños a cosas_IFRS17</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Concepto</t>
   </si>
   <si>
-    <t>Estimación de pasivos</t>
-  </si>
-  <si>
-    <t>Valor presente de pasivos estimados</t>
-  </si>
-  <si>
     <t>Impacto de la tasa de descuento</t>
   </si>
   <si>
@@ -86,17 +80,33 @@
     <t>Impacto del Ajuste de Riesgo No financiero</t>
   </si>
   <si>
-    <t>Reserva por IFRS 17</t>
+    <t>Estimación de Siniestros</t>
+  </si>
+  <si>
+    <t>Valor presente de pagos estimados</t>
+  </si>
+  <si>
+    <t>Ajuste de Riesgo No Fin. (%)</t>
+  </si>
+  <si>
+    <t>Valor presente de los flujos futuros</t>
+  </si>
+  <si>
+    <t>Reserva por IBNR RGAA</t>
+  </si>
+  <si>
+    <t>Reserva por IBNR IFRS 17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +116,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -158,8 +175,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -172,10 +190,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,264 +498,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="B1:R37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34:O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>434.22568943619632</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2266.9195792784271</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>169.95478140006361</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>422.74160762946559</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1879.796491475937</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>134.39373579897079</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>538.57073568454507</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1053.0508897497571</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>67.752971946354407</v>
       </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
+        <v>434.22568943619632</v>
+      </c>
+      <c r="D21" s="3">
+        <v>422.74160762946559</v>
+      </c>
+      <c r="E21" s="3">
+        <f>D21-C21</f>
+        <v>-11.484081806730728</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2266.9195792784271</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1879.796491475937</v>
+      </c>
+      <c r="E22" s="3">
+        <f>D22-C22</f>
+        <v>-387.12308780249009</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="4">
-        <v>0.18894094996618813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" s="1" t="s">
+      <c r="C23" s="3">
+        <v>169.95478140006361</v>
+      </c>
+      <c r="D23" s="3">
+        <v>134.39373579897079</v>
+      </c>
+      <c r="E23" s="3">
+        <f>D23-C23</f>
+        <v>-35.561045601092815</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="4">
-        <v>7.5772818457541719E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="3">
+        <f>SUM(O30:P30)</f>
+        <v>422.74160762946559</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0.2510593403177479</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>P25*O25</f>
+        <v>106.13322913631785</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="3">
+        <f>SUM(O31:P31)</f>
+        <v>1879.796491475937</v>
+      </c>
+      <c r="P26" s="4">
+        <v>9.9741908405068733E-2</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" ref="Q26:Q27" si="0">P26*O26</f>
+        <v>187.49448947296247</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="3">
+        <f>SUM(O32:P32)</f>
+        <v>134.39373579897079</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.17999771277018187</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="0"/>
+        <v>24.190565054454854</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="4">
-        <v>0.14198961306852798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="P29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" s="3">
+        <f>C21</f>
+        <v>434.22568943619632</v>
+      </c>
+      <c r="P30" s="3">
+        <f>E21</f>
+        <v>-11.484081806730728</v>
+      </c>
+      <c r="Q30" s="3">
+        <f>D21*$P$25</f>
+        <v>106.13322913631785</v>
+      </c>
+      <c r="R30" s="3">
+        <f>SUM(O30:Q30)</f>
+        <v>528.87483676578347</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="3">
+        <f>C22</f>
+        <v>2266.9195792784271</v>
+      </c>
+      <c r="P31" s="3">
+        <f>E22</f>
+        <v>-387.12308780249009</v>
+      </c>
+      <c r="Q31" s="3">
+        <f>D22*$P$26</f>
+        <v>187.49448947296247</v>
+      </c>
+      <c r="R31" s="3">
+        <f>SUM(O31:Q31)</f>
+        <v>2067.2909809488997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="N32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="3">
+        <f>C23</f>
+        <v>169.95478140006361</v>
+      </c>
+      <c r="P32" s="3">
+        <f>E23</f>
+        <v>-35.561045601092815</v>
+      </c>
+      <c r="Q32" s="3">
+        <f>D23*$P$27</f>
+        <v>24.190565054454854</v>
+      </c>
+      <c r="R32" s="3">
+        <f>SUM(O32:Q32)</f>
+        <v>158.58430085342565</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="O34" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="O35" s="3">
+        <v>538.57073568454507</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N36" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="O36" s="3">
+        <v>1053.0508897497571</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="3">
-        <v>434.22568943619632</v>
-      </c>
-      <c r="C21" s="3">
-        <v>422.74160762946559</v>
-      </c>
-      <c r="D21" s="3">
-        <f>C21-B21</f>
-        <v>-11.484081806730728</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2266.9195792784271</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1879.796491475937</v>
-      </c>
-      <c r="D22" s="3">
-        <f>C22-B22</f>
-        <v>-387.12308780249009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="3">
-        <v>169.95478140006361</v>
-      </c>
-      <c r="C23" s="3">
-        <v>134.39373579897079</v>
-      </c>
-      <c r="D23" s="3">
-        <f>C23-B23</f>
-        <v>-35.561045601092815</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N30" s="3">
-        <f>B21</f>
-        <v>434.22568943619632</v>
-      </c>
-      <c r="O30" s="3">
-        <f>D21</f>
-        <v>-11.484081806730728</v>
-      </c>
-      <c r="P30" s="3">
-        <f>C21*$G$10</f>
-        <v>79.873200935744791</v>
-      </c>
-      <c r="Q30" s="3">
-        <f>SUM(N30:P30)</f>
-        <v>502.61480856521041</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N31" s="3">
-        <f>B22</f>
-        <v>2266.9195792784271</v>
-      </c>
-      <c r="O31" s="3">
-        <f>D22</f>
-        <v>-387.12308780249009</v>
-      </c>
-      <c r="P31" s="3">
-        <f>C22*$G$11</f>
-        <v>142.43747828573004</v>
-      </c>
-      <c r="Q31" s="3">
-        <f t="shared" ref="Q31:Q32" si="0">SUM(N31:P31)</f>
-        <v>2022.2339697616671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N32" s="3">
-        <f>B23</f>
-        <v>169.95478140006361</v>
-      </c>
-      <c r="O32" s="3">
-        <f>D23</f>
-        <v>-35.561045601092815</v>
-      </c>
-      <c r="P32" s="3">
-        <f>C23*$G$12</f>
-        <v>19.08251454492984</v>
-      </c>
-      <c r="Q32" s="3">
-        <f t="shared" si="0"/>
-        <v>153.47625034390063</v>
+      <c r="O37" s="3">
+        <v>67.752971946354407</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/df_resultados_finales.xlsx
+++ b/Resultados/df_resultados_finales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47B3CBB-9B9C-43F8-8891-34787BBD0B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D91CC5E-9EFD-4A9D-80B3-1936388C5618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -190,7 +190,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J16" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34:O37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K22" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,11 +680,11 @@
         <v>422.74160762946559</v>
       </c>
       <c r="P25" s="4">
-        <v>0.2510593403177479</v>
+        <v>0.38713297747588221</v>
       </c>
       <c r="Q25" s="3">
         <f>P25*O25</f>
-        <v>106.13322913631785</v>
+        <v>163.65721726453614</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -696,11 +696,11 @@
         <v>1879.796491475937</v>
       </c>
       <c r="P26" s="4">
-        <v>9.9741908405068733E-2</v>
+        <v>0.14874520584066048</v>
       </c>
       <c r="Q26" s="3">
         <f t="shared" ref="Q26:Q27" si="0">P26*O26</f>
-        <v>187.49448947296247</v>
+        <v>279.61071606313965</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
@@ -712,11 +712,11 @@
         <v>134.39373579897079</v>
       </c>
       <c r="P27" s="4">
-        <v>0.17999771277018187</v>
+        <v>0.25479113781598445</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" si="0"/>
-        <v>24.190565054454854</v>
+        <v>34.24233285956057</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
@@ -750,11 +750,11 @@
       </c>
       <c r="Q30" s="3">
         <f>D21*$P$25</f>
-        <v>106.13322913631785</v>
+        <v>163.65721726453614</v>
       </c>
       <c r="R30" s="3">
         <f>SUM(O30:Q30)</f>
-        <v>528.87483676578347</v>
+        <v>586.39882489400179</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
@@ -771,11 +771,11 @@
       </c>
       <c r="Q31" s="3">
         <f>D22*$P$26</f>
-        <v>187.49448947296247</v>
+        <v>279.61071606313965</v>
       </c>
       <c r="R31" s="3">
         <f>SUM(O31:Q31)</f>
-        <v>2067.2909809488997</v>
+        <v>2159.4072075390768</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
@@ -792,11 +792,11 @@
       </c>
       <c r="Q32" s="3">
         <f>D23*$P$27</f>
-        <v>24.190565054454854</v>
+        <v>34.24233285956057</v>
       </c>
       <c r="R32" s="3">
         <f>SUM(O32:Q32)</f>
-        <v>158.58430085342565</v>
+        <v>168.63606865853137</v>
       </c>
     </row>
     <row r="34" spans="14:15" x14ac:dyDescent="0.3">
